--- a/Planification/Estimation.xlsx
+++ b/Planification/Estimation.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49CFCCAD-FD47-40FE-93C5-C214E78A4ED1}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D160815F-C9EA-4E14-BE87-EA56E074B193}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Estimation" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,12 @@
     <sheet name="Iteration #3" sheetId="4" r:id="rId4"/>
     <sheet name="Iteration #4" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="46">
   <si>
     <t>Définition du noyau (section qui doit obligatoirement être terminée pour réussir le cours : 60%)</t>
   </si>
@@ -139,6 +139,24 @@
   </si>
   <si>
     <t>Ajout de boutons sur la carte qui affichera une photo de salle qu'on a touché</t>
+  </si>
+  <si>
+    <t>Création de l'app, création du logo, développement de ma vue du main menu</t>
+  </si>
+  <si>
+    <t>Recherche et implémentation du expandableListView avec pager adapter (données hard code pour l'instant)</t>
+  </si>
+  <si>
+    <t>Création du modèle relationnel de ma BD + fin implémentation listView</t>
+  </si>
+  <si>
+    <t>Début de la création de mon modèle SQLITE dans mon app android</t>
+  </si>
+  <si>
+    <t>Fin modèle SQLITE + début création BD avec sqlite data browser</t>
+  </si>
+  <si>
+    <t>J'ai bien enclenché le projet, par contre, je pourrais mettre plus d'heure pour la prochaine itération.</t>
   </si>
 </sst>
 </file>
@@ -282,7 +300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -333,6 +351,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1714,7 +1735,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A6:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
@@ -1943,8 +1964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42:B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2001,117 +2022,147 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="15"/>
+      <c r="A14" s="23">
+        <v>43179</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="15">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="15"/>
+      <c r="A15" s="23">
+        <v>43180</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="15">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="15"/>
+      <c r="A16" s="23">
+        <v>43181</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="15"/>
+      <c r="A17" s="23">
+        <v>43186</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="15"/>
+      <c r="A18" s="23">
+        <v>43187</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
+      <c r="A19" s="3"/>
       <c r="B19" s="4"/>
       <c r="C19" s="15"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
+      <c r="A20" s="3"/>
       <c r="B20" s="4"/>
       <c r="C20" s="15"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
+      <c r="A21" s="3"/>
       <c r="B21" s="4"/>
       <c r="C21" s="15"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
+      <c r="A22" s="3"/>
       <c r="B22" s="4"/>
       <c r="C22" s="15"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
+      <c r="A23" s="3"/>
       <c r="B23" s="4"/>
       <c r="C23" s="15"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
+      <c r="A24" s="3"/>
       <c r="B24" s="4"/>
       <c r="C24" s="15"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
+      <c r="A25" s="3"/>
       <c r="B25" s="4"/>
       <c r="C25" s="15"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
+      <c r="A26" s="3"/>
       <c r="B26" s="4"/>
       <c r="C26" s="15"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
+      <c r="A27" s="3"/>
       <c r="B27" s="4"/>
       <c r="C27" s="15"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
+      <c r="A28" s="3"/>
       <c r="B28" s="4"/>
       <c r="C28" s="15"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
+      <c r="A29" s="3"/>
       <c r="B29" s="4"/>
       <c r="C29" s="15"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
+      <c r="A30" s="3"/>
       <c r="B30" s="4"/>
       <c r="C30" s="15"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
+      <c r="A31" s="3"/>
       <c r="B31" s="4"/>
       <c r="C31" s="15"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
+      <c r="A32" s="3"/>
       <c r="B32" s="4"/>
       <c r="C32" s="15"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
+      <c r="A33" s="3"/>
       <c r="B33" s="4"/>
       <c r="C33" s="15"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
+      <c r="A34" s="3"/>
       <c r="B34" s="4"/>
       <c r="C34" s="15"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
+      <c r="A35" s="3"/>
       <c r="B35" s="4"/>
       <c r="C35" s="15"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
+      <c r="A36" s="3"/>
       <c r="B36" s="4"/>
       <c r="C36" s="15"/>
     </row>
@@ -2122,7 +2173,7 @@
       <c r="B37" s="19"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2135,7 +2186,9 @@
       <c r="A40" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B40" s="4"/>
+      <c r="B40" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
@@ -2144,7 +2197,9 @@
       <c r="A42" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="20"/>
+      <c r="B42" s="20" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B43" s="21"/>

--- a/Planification/Estimation.xlsx
+++ b/Planification/Estimation.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D160815F-C9EA-4E14-BE87-EA56E074B193}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C73E7D1-802F-426B-8584-0B668194826A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Estimation" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="60">
   <si>
     <t>Définition du noyau (section qui doit obligatoirement être terminée pour réussir le cours : 60%)</t>
   </si>
@@ -96,9 +96,6 @@
     <t>Semaine 15</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Le projet doit être décomposé en plusieurs sections indépendantes qui doivent être priorisées et estimées</t>
   </si>
   <si>
@@ -153,10 +150,55 @@
     <t>Début de la création de mon modèle SQLITE dans mon app android</t>
   </si>
   <si>
-    <t>Fin modèle SQLITE + début création BD avec sqlite data browser</t>
-  </si>
-  <si>
     <t>J'ai bien enclenché le projet, par contre, je pourrais mettre plus d'heure pour la prochaine itération.</t>
+  </si>
+  <si>
+    <t>Fin création objets SQLITE + début création BD avec sqlite data browser</t>
+  </si>
+  <si>
+    <t>Création de tables avec Data Browser</t>
+  </si>
+  <si>
+    <t>Recherche de data sur le web + début d'insertion dans mes tables</t>
+  </si>
+  <si>
+    <t>Insertion dans ma BD</t>
+  </si>
+  <si>
+    <t>Modification table + insertion + recherche data armes operateurs</t>
+  </si>
+  <si>
+    <t>La création et l'insertion de données dans ma BD a pris beaucoup plus de temps que prévu, je ne pensais pas passer une itération à ne faire que cela. Il fallait que ca se fasse, je n'ai pas pu trouvé de fichier excel ou autre avec déjà les données de R6.</t>
+  </si>
+  <si>
+    <t>Fin insertion + connexion BD avec Android</t>
+  </si>
+  <si>
+    <t>Faire fonctionner la BD avec l'app, Afficher les opérateurs dans mes expandablesListView</t>
+  </si>
+  <si>
+    <t>Recherche image icone opérateur + formatage avec GIMP + création de thumbnail pour la listview</t>
+  </si>
+  <si>
+    <t>Création de l'Activity pour la page d'infos d'opérateurs, début de création du layout</t>
+  </si>
+  <si>
+    <t>Requêtes et méthodes pour afficher les infos des opérateurs (nomCode, bio, nom complet, CTU, ddn)</t>
+  </si>
+  <si>
+    <t>Recherche image opérateur + formatage avec GIMP, intégration images et icone dans l'activité de l'opérateur sélectionné</t>
+  </si>
+  <si>
+    <t>Ajout des gadgets à la fiche opérateur (requête SQLITE et positionnement), ajout image gadgets (Recherche + formatage GIMP)</t>
+  </si>
+  <si>
+    <t>Modification layout pour une meilleur disposition des éléments, ajout gadget unique à la page (requête sqlite, méthode pour positionner, etc.) + ajout image gadget unique (Recherche + formatage)</t>
+  </si>
+  <si>
+    <t>J'ai bien fait pour cette itération, ma fiche d'opérateur est pratiquement finie, il ne reste qu'à intégrer les armes. J'ai remarqué par contre que je n'utilise pas l'objet lors de mes requêtes SQLITE, je mets tout dans des listes et des hashmaps, ce qui n'est pas l'idéal, je veillerai à faire ces modifications prochainement.</t>
+  </si>
+  <si>
+    <t>Modification police BEBAS pour ajouter les accents + ajout des armes dans la fiche des ops + ajout photos armes + formatage GIMP</t>
   </si>
 </sst>
 </file>
@@ -300,7 +342,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -329,14 +371,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -353,7 +395,31 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1735,7 +1801,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A6:C35"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
@@ -1748,7 +1814,7 @@
   <sheetData>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1763,12 +1829,12 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1793,7 +1859,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16" s="3">
         <v>10</v>
@@ -1804,7 +1870,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C17" s="3">
         <v>20</v>
@@ -1815,7 +1881,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C18" s="3">
         <v>20</v>
@@ -1826,7 +1892,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" s="3">
         <v>30</v>
@@ -1870,7 +1936,7 @@
         <v>1</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C25" s="3">
         <v>5</v>
@@ -1881,7 +1947,7 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C26" s="3">
         <v>10</v>
@@ -1892,7 +1958,7 @@
         <v>3</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C27" s="3">
         <v>10</v>
@@ -1964,15 +2030,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42:B47"/>
+    <sheetView view="pageLayout" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" customWidth="1"/>
     <col min="2" max="2" width="70.5703125" customWidth="1"/>
-    <col min="3" max="3" width="9" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2017,174 +2083,174 @@
       <c r="B13" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="23">
+      <c r="A14" s="17">
         <v>43179</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="14">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="17">
+        <v>43180</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="15">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="23">
-        <v>43180</v>
-      </c>
-      <c r="B15" s="4" t="s">
+      <c r="C15" s="14">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="17">
+        <v>43181</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="15">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="23">
-        <v>43181</v>
-      </c>
-      <c r="B16" s="4" t="s">
+      <c r="C16" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="17">
+        <v>43186</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="23">
-        <v>43186</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="15">
+      <c r="C17" s="14">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="23">
+      <c r="A18" s="17">
         <v>43187</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="15">
-        <v>3</v>
+      <c r="C18" s="14">
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="4"/>
-      <c r="C19" s="15"/>
+      <c r="C19" s="14"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="4"/>
-      <c r="C20" s="15"/>
+      <c r="C20" s="14"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="4"/>
-      <c r="C21" s="15"/>
+      <c r="C21" s="14"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="4"/>
-      <c r="C22" s="15"/>
+      <c r="C22" s="14"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="4"/>
-      <c r="C23" s="15"/>
+      <c r="C23" s="14"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="4"/>
-      <c r="C24" s="15"/>
+      <c r="C24" s="14"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="4"/>
-      <c r="C25" s="15"/>
+      <c r="C25" s="14"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="4"/>
-      <c r="C26" s="15"/>
+      <c r="C26" s="14"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="4"/>
-      <c r="C27" s="15"/>
+      <c r="C27" s="14"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="4"/>
-      <c r="C28" s="15"/>
+      <c r="C28" s="14"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="4"/>
-      <c r="C29" s="15"/>
+      <c r="C29" s="14"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="4"/>
-      <c r="C30" s="15"/>
+      <c r="C30" s="14"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="4"/>
-      <c r="C31" s="15"/>
+      <c r="C31" s="14"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="4"/>
-      <c r="C32" s="15"/>
+      <c r="C32" s="14"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="4"/>
-      <c r="C33" s="15"/>
+      <c r="C33" s="14"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="4"/>
-      <c r="C34" s="15"/>
+      <c r="C34" s="14"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="4"/>
-      <c r="C35" s="15"/>
+      <c r="C35" s="14"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="4"/>
-      <c r="C36" s="15"/>
+      <c r="C36" s="14"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
         <v>7</v>
       </c>
       <c r="B37" s="19"/>
-      <c r="C37" s="16">
+      <c r="C37" s="15">
         <f>SUM(C14:C36)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C39" s="17"/>
+        <v>27</v>
+      </c>
+      <c r="C39" s="16"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B40" s="4">
         <v>7</v>
@@ -2195,10 +2261,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -2231,15 +2297,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" customWidth="1"/>
     <col min="2" max="2" width="70.5703125" customWidth="1"/>
-    <col min="3" max="3" width="9" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2284,157 +2350,195 @@
       <c r="B13" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="15"/>
+      <c r="A14" s="24">
+        <v>43188</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="14">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="15"/>
+      <c r="A15" s="24">
+        <v>43192</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="14">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="15"/>
+      <c r="A16" s="24">
+        <v>43193</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="14">
+        <v>5</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="15"/>
+      <c r="A17" s="24">
+        <v>43196</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="14">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="15"/>
+      <c r="A18" s="24">
+        <v>43200</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="14">
+        <v>3</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="15"/>
+      <c r="A19" s="24">
+        <v>43202</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="14">
+        <v>5</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
+      <c r="A20" s="24"/>
       <c r="B20" s="4"/>
-      <c r="C20" s="15"/>
+      <c r="C20" s="14"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
+      <c r="A21" s="24"/>
       <c r="B21" s="4"/>
-      <c r="C21" s="15"/>
+      <c r="C21" s="14"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
+      <c r="A22" s="24"/>
       <c r="B22" s="4"/>
-      <c r="C22" s="15"/>
+      <c r="C22" s="14"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
+      <c r="A23" s="24"/>
       <c r="B23" s="4"/>
-      <c r="C23" s="15"/>
+      <c r="C23" s="14"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
+      <c r="A24" s="24"/>
       <c r="B24" s="4"/>
-      <c r="C24" s="15"/>
+      <c r="C24" s="14"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
-      <c r="C25" s="15"/>
+      <c r="C25" s="14"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
-      <c r="C26" s="15"/>
+      <c r="C26" s="14"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
-      <c r="C27" s="15"/>
+      <c r="C27" s="14"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
-      <c r="C28" s="15"/>
+      <c r="C28" s="14"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
-      <c r="C29" s="15"/>
+      <c r="C29" s="14"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
-      <c r="C30" s="15"/>
+      <c r="C30" s="14"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
-      <c r="C31" s="15"/>
+      <c r="C31" s="14"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
-      <c r="C32" s="15"/>
+      <c r="C32" s="14"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
-      <c r="C33" s="15"/>
+      <c r="C33" s="14"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
-      <c r="C34" s="15"/>
+      <c r="C34" s="14"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
-      <c r="C35" s="15"/>
+      <c r="C35" s="14"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
-      <c r="C36" s="15"/>
+      <c r="C36" s="14"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
         <v>7</v>
       </c>
       <c r="B37" s="19"/>
-      <c r="C37" s="16">
+      <c r="C37" s="15">
         <f>SUM(C14:C36)</f>
-        <v>0</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C39" s="17"/>
+        <v>27</v>
+      </c>
+      <c r="C39" s="16"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B40" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="B40" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B42" s="20"/>
+        <v>29</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B43" s="21"/>
@@ -2464,17 +2568,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A6:C47"/>
+  <dimension ref="A6:C38"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33:B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" customWidth="1"/>
     <col min="2" max="2" width="70.5703125" customWidth="1"/>
-    <col min="3" max="3" width="9" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2519,175 +2623,176 @@
       <c r="B13" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="15"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="15"/>
+      <c r="A14" s="24">
+        <v>43206</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="24">
+        <v>43207</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="28">
+        <v>4</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="15"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="15"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="15"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="15"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="15"/>
+      <c r="A16" s="24">
+        <v>43209</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="24">
+        <v>43210</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="24">
+        <v>43213</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="28">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="24">
+        <v>43214</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="24">
+        <v>43217</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="28">
+        <v>4</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="15"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="28"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="15"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="14"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="15"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="14"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="15"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="14"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="15"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="14"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="15"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="14"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="15"/>
+      <c r="A27" s="27"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="14"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="15"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="15"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="15"/>
+      <c r="A28" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="19"/>
+      <c r="C28" s="15">
+        <f>SUM(C14:C27)</f>
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="16"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="15"/>
+      <c r="A31" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="4">
+        <v>9</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="15"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="15"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="15"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="15"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="15"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="16">
-        <f>SUM(C14:C36)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C39" s="17"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
+      <c r="A32" s="7"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B40" s="4"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B42" s="20"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="21"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="21"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B45" s="21"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B46" s="21"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B47" s="22"/>
+      <c r="B33" s="29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="30"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="30"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="30"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="30"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="B42:B47"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="B33:B38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2697,17 +2802,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A6:C47"/>
+  <dimension ref="A6:C41"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" customWidth="1"/>
     <col min="2" max="2" width="70.5703125" customWidth="1"/>
-    <col min="3" max="3" width="9" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2736,7 +2841,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -2752,175 +2857,151 @@
       <c r="B13" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="15"/>
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="23">
+        <v>43221</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="27">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="15"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="27"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="15"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="27"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="15"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="27"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="15"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="27"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="15"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="27"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="15"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="27"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="15"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="14"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="15"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="14"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="15"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="14"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="15"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="14"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
-      <c r="C25" s="15"/>
+      <c r="C25" s="14"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
-      <c r="C26" s="15"/>
+      <c r="C26" s="14"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
-      <c r="C27" s="15"/>
+      <c r="C27" s="14"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
-      <c r="C28" s="15"/>
+      <c r="C28" s="14"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
-      <c r="C29" s="15"/>
+      <c r="C29" s="14"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
-      <c r="C30" s="15"/>
+      <c r="C30" s="14"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="15"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="15"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="15"/>
+      <c r="A31" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="19"/>
+      <c r="C31" s="15">
+        <f>SUM(C14:C30)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="16"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
+      <c r="A34" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="B34" s="4"/>
-      <c r="C34" s="15"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="15"/>
+      <c r="A35" s="7"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="15"/>
+      <c r="A36" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="20"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="16">
-        <f>SUM(C14:C36)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C39" s="17"/>
+      <c r="B37" s="21"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="21"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="21"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B40" s="4"/>
+      <c r="B40" s="21"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B42" s="20"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="21"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="21"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B45" s="21"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B46" s="21"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B47" s="22"/>
+      <c r="B41" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="B42:B47"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="B36:B41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Planification/Estimation.xlsx
+++ b/Planification/Estimation.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C73E7D1-802F-426B-8584-0B668194826A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{524B31FE-767E-4DC4-8D4A-9682DE82A5F7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="64">
   <si>
     <t>Définition du noyau (section qui doit obligatoirement être terminée pour réussir le cours : 60%)</t>
   </si>
@@ -199,6 +199,18 @@
   </si>
   <si>
     <t>Modification police BEBAS pour ajouter les accents + ajout des armes dans la fiche des ops + ajout photos armes + formatage GIMP</t>
+  </si>
+  <si>
+    <t>Liste des armes fonctionnels/optimisation de code/changement d'apparence/onClick fonctionnel au niveau des armes</t>
+  </si>
+  <si>
+    <t>Création specs armes/ajout icone ops associés à l'arme</t>
+  </si>
+  <si>
+    <t>Prise et mise en forme des attachements des armes avec gimp/ ajout attachements armes</t>
+  </si>
+  <si>
+    <t>Mon application n'est pas complète, mais je pense que j'ai fait du bon travail lors de la quatrième itération, malgré ma perte de motivation. Je me suis mis à utiliser les listes d'objets au lieu de hashmap et liste de string, cela fait la différence lors de l'utilisation. Je n'ai pas eu le temps de faire la gestion et l'affichage des dégats d'arme, je vais le faire éventuellement, je compte bien continuer de la développer.</t>
   </si>
 </sst>
 </file>
@@ -379,6 +391,24 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -393,24 +423,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1899,10 +1911,10 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="19"/>
+      <c r="B20" s="25"/>
       <c r="C20" s="11">
         <f>SUM(C17:C19)</f>
         <v>70</v>
@@ -2000,10 +2012,10 @@
       <c r="C32" s="3"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="19"/>
+      <c r="B33" s="25"/>
       <c r="C33" s="11">
         <f>SUM(C25:C32)</f>
         <v>25</v>
@@ -2031,7 +2043,7 @@
   <dimension ref="A6:C47"/>
   <sheetViews>
     <sheetView view="pageLayout" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2233,10 +2245,10 @@
       <c r="C36" s="14"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="19"/>
+      <c r="B37" s="25"/>
       <c r="C37" s="15">
         <f>SUM(C14:C36)</f>
         <v>16</v>
@@ -2263,24 +2275,24 @@
       <c r="A42" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B42" s="20" t="s">
+      <c r="B42" s="26" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="21"/>
+      <c r="B43" s="27"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="21"/>
+      <c r="B44" s="27"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B45" s="21"/>
+      <c r="B45" s="27"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B46" s="21"/>
+      <c r="B46" s="27"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B47" s="22"/>
+      <c r="B47" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2355,7 +2367,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="24">
+      <c r="A14" s="18">
         <v>43188</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -2366,7 +2378,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="24">
+      <c r="A15" s="18">
         <v>43192</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -2377,7 +2389,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="24">
+      <c r="A16" s="18">
         <v>43193</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -2388,7 +2400,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="24">
+      <c r="A17" s="18">
         <v>43196</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -2399,7 +2411,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="24">
+      <c r="A18" s="18">
         <v>43200</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -2410,7 +2422,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="24">
+      <c r="A19" s="18">
         <v>43202</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -2421,27 +2433,27 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="24"/>
+      <c r="A20" s="18"/>
       <c r="B20" s="4"/>
       <c r="C20" s="14"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="24"/>
+      <c r="A21" s="18"/>
       <c r="B21" s="4"/>
       <c r="C21" s="14"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="24"/>
+      <c r="A22" s="18"/>
       <c r="B22" s="4"/>
       <c r="C22" s="14"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="24"/>
+      <c r="A23" s="18"/>
       <c r="B23" s="4"/>
       <c r="C23" s="14"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="24"/>
+      <c r="A24" s="18"/>
       <c r="B24" s="4"/>
       <c r="C24" s="14"/>
     </row>
@@ -2506,10 +2518,10 @@
       <c r="C36" s="14"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="19"/>
+      <c r="B37" s="25"/>
       <c r="C37" s="15">
         <f>SUM(C14:C36)</f>
         <v>21.5</v>
@@ -2536,24 +2548,24 @@
       <c r="A42" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B42" s="20" t="s">
+      <c r="B42" s="26" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="21"/>
+      <c r="B43" s="27"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="21"/>
+      <c r="B44" s="27"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B45" s="21"/>
+      <c r="B45" s="27"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B46" s="21"/>
+      <c r="B46" s="27"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B47" s="22"/>
+      <c r="B47" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2570,8 +2582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A6:C38"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:B38"/>
+    <sheetView view="pageLayout" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2628,122 +2640,122 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="24">
+      <c r="A14" s="18">
         <v>43206</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="22">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="24">
+      <c r="A15" s="18">
         <v>43207</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="28">
+      <c r="C15" s="22">
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="24">
+      <c r="A16" s="18">
         <v>43209</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="28">
+      <c r="C16" s="22">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="24">
+      <c r="A17" s="18">
         <v>43210</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="28">
+      <c r="C17" s="22">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="24">
+      <c r="A18" s="18">
         <v>43213</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="28">
+      <c r="C18" s="22">
         <v>3.75</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="24">
+      <c r="A19" s="18">
         <v>43214</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="28">
+      <c r="C19" s="22">
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="24">
+      <c r="A20" s="18">
         <v>43217</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="28">
+      <c r="C20" s="22">
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="28"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="22"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
-      <c r="B22" s="26"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="14"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="25"/>
-      <c r="B23" s="26"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="14"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="25"/>
-      <c r="B24" s="26"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="14"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="25"/>
-      <c r="B25" s="26"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="20"/>
       <c r="C25" s="14"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="25"/>
-      <c r="B26" s="26"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="20"/>
       <c r="C26" s="14"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="27"/>
-      <c r="B27" s="26"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="20"/>
       <c r="C27" s="14"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="19"/>
+      <c r="B28" s="25"/>
       <c r="C28" s="15">
         <f>SUM(C14:C27)</f>
         <v>26.75</v>
@@ -2804,8 +2816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A6:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36:B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2862,104 +2874,122 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="23">
+      <c r="A14" s="18">
         <v>43221</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="27">
+      <c r="C14" s="21">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="27"/>
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="18">
+        <v>43229</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="21">
+        <v>8</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="27"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="27"/>
+      <c r="A16" s="18">
+        <v>43237</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="18">
+        <v>43238</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="21">
+        <v>3</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="27"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="27"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="21"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="27"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="27"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="21"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="27"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="27"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="21"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="26"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="14"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="26"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="14"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="26"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="14"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="26"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="14"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
+      <c r="A25" s="3"/>
       <c r="B25" s="4"/>
       <c r="C25" s="14"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
+      <c r="A26" s="3"/>
       <c r="B26" s="4"/>
       <c r="C26" s="14"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
+      <c r="A27" s="3"/>
       <c r="B27" s="4"/>
       <c r="C27" s="14"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
+      <c r="A28" s="3"/>
       <c r="B28" s="4"/>
       <c r="C28" s="14"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
+      <c r="A29" s="3"/>
       <c r="B29" s="4"/>
       <c r="C29" s="14"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
+      <c r="A30" s="3"/>
       <c r="B30" s="4"/>
       <c r="C30" s="14"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="19"/>
+      <c r="B31" s="25"/>
       <c r="C31" s="15">
         <f>SUM(C14:C30)</f>
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2972,7 +3002,9 @@
       <c r="A34" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="4"/>
+      <c r="B34" s="4">
+        <v>8</v>
+      </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
@@ -2981,22 +3013,24 @@
       <c r="A36" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="20"/>
+      <c r="B36" s="29" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="21"/>
+      <c r="B37" s="30"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="21"/>
+      <c r="B38" s="30"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="21"/>
+      <c r="B39" s="30"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="21"/>
+      <c r="B40" s="30"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B41" s="22"/>
+      <c r="B41" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="2">
